--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value846.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value846.xlsx
@@ -354,7 +354,7 @@
         <v>1.673167688936738</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.440103536571708</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value846.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value846.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7017082109532983</v>
+        <v>0.7596665024757385</v>
       </c>
       <c r="B1">
-        <v>1.673167688936738</v>
+        <v>1.110942602157593</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.503080368041992</v>
       </c>
       <c r="D1">
-        <v>2.440103536571708</v>
+        <v>3.807764291763306</v>
       </c>
       <c r="E1">
-        <v>1.505669353747947</v>
+        <v>1.977208971977234</v>
       </c>
     </row>
   </sheetData>
